--- a/Team-Data/2012-13/3-15-2012-13.xlsx
+++ b/Team-Data/2012-13/3-15-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="n">
         <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.554</v>
+        <v>0.547</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -696,22 +763,22 @@
         <v>23.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
       </c>
       <c r="O2" t="n">
         <v>13.5</v>
       </c>
       <c r="P2" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.706</v>
+        <v>0.705</v>
       </c>
       <c r="R2" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S2" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
         <v>40.9</v>
@@ -720,10 +787,10 @@
         <v>24.4</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
@@ -735,16 +802,16 @@
         <v>18.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -753,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -795,22 +862,22 @@
         <v>24</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
         <v>26</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -947,7 +1014,7 @@
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -962,7 +1029,7 @@
         <v>20</v>
       </c>
       <c r="AP3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>7</v>
@@ -971,10 +1038,10 @@
         <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
@@ -983,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -1120,10 +1187,10 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
@@ -1141,7 +1208,7 @@
         <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>8</v>
@@ -1150,13 +1217,13 @@
         <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS4" t="n">
         <v>20</v>
       </c>
       <c r="AT4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU4" t="n">
         <v>28</v>
@@ -1165,7 +1232,7 @@
         <v>16</v>
       </c>
       <c r="AW4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -1212,64 +1279,64 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="J5" t="n">
         <v>81.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.417</v>
+        <v>0.418</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O5" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S5" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T5" t="n">
         <v>40.4</v>
       </c>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="V5" t="n">
         <v>13.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X5" t="n">
         <v>6</v>
@@ -1284,13 +1351,13 @@
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="AC5" t="n">
         <v>-10</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1314,13 +1381,13 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO5" t="n">
         <v>4</v>
@@ -1332,10 +1399,10 @@
         <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT5" t="n">
         <v>27</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -1394,49 +1461,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
         <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>0.554</v>
+        <v>0.547</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J6" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M6" t="n">
         <v>14.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.339</v>
+        <v>0.336</v>
       </c>
       <c r="O6" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P6" t="n">
         <v>21.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S6" t="n">
         <v>30.6</v>
@@ -1445,7 +1512,7 @@
         <v>43.4</v>
       </c>
       <c r="U6" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V6" t="n">
         <v>14.7</v>
@@ -1454,25 +1521,25 @@
         <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
         <v>5.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
         <v>19.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.40000000000001</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1481,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1490,10 +1557,10 @@
         <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,10 +1569,10 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>20</v>
@@ -1523,16 +1590,16 @@
         <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1547,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" t="n">
-        <v>0.338</v>
+        <v>0.344</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>0.434</v>
@@ -1603,22 +1670,22 @@
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O7" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P7" t="n">
         <v>23</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R7" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S7" t="n">
         <v>28.4</v>
@@ -1630,40 +1697,40 @@
         <v>20.6</v>
       </c>
       <c r="V7" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
         <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y7" t="n">
         <v>7.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>24</v>
       </c>
       <c r="AF7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG7" t="n">
         <v>24</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>26</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
@@ -1675,10 +1742,10 @@
         <v>4</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
         <v>12</v>
@@ -1687,7 +1754,7 @@
         <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
         <v>11</v>
@@ -1696,7 +1763,7 @@
         <v>15</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1705,13 +1772,13 @@
         <v>25</v>
       </c>
       <c r="AU7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
         <v>6</v>
       </c>
       <c r="AW7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1720,10 +1787,10 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
         <v>34</v>
       </c>
       <c r="G8" t="n">
-        <v>0.477</v>
+        <v>0.469</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
@@ -1779,7 +1846,7 @@
         <v>84.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L8" t="n">
         <v>7.5</v>
@@ -1791,28 +1858,28 @@
         <v>0.371</v>
       </c>
       <c r="O8" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P8" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.792</v>
+        <v>0.793</v>
       </c>
       <c r="R8" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U8" t="n">
         <v>23</v>
       </c>
       <c r="V8" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W8" t="n">
         <v>7.9</v>
@@ -1827,16 +1894,16 @@
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AB8" t="n">
         <v>101.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1851,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
         <v>3</v>
@@ -1869,10 +1936,10 @@
         <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -1881,10 +1948,10 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1893,7 +1960,7 @@
         <v>7</v>
       </c>
       <c r="AW8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
         <v>9</v>
@@ -1905,7 +1972,7 @@
         <v>24</v>
       </c>
       <c r="BA8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.672</v>
+        <v>0.667</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="J9" t="n">
-        <v>85.09999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="K9" t="n">
         <v>0.479</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M9" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="O9" t="n">
         <v>17.9</v>
@@ -1985,13 +2052,13 @@
         <v>13.3</v>
       </c>
       <c r="S9" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T9" t="n">
         <v>45</v>
       </c>
       <c r="U9" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="V9" t="n">
         <v>15.2</v>
@@ -2006,22 +2073,22 @@
         <v>6.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA9" t="n">
         <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.8</v>
+        <v>106</v>
       </c>
       <c r="AC9" t="n">
         <v>4.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
@@ -2030,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2042,10 +2109,10 @@
         <v>4</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN9" t="n">
         <v>25</v>
@@ -2060,16 +2127,16 @@
         <v>29</v>
       </c>
       <c r="AR9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV9" t="n">
         <v>25</v>
@@ -2078,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="AX9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>28</v>
@@ -2087,7 +2154,7 @@
         <v>21</v>
       </c>
       <c r="BA9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -2206,22 +2273,22 @@
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG10" t="n">
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>22</v>
@@ -2233,10 +2300,10 @@
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ10" t="n">
         <v>28</v>
@@ -2245,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" t="n">
         <v>37</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" t="n">
-        <v>0.552</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,7 +2389,7 @@
         <v>37.7</v>
       </c>
       <c r="J11" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.454</v>
@@ -2331,31 +2398,31 @@
         <v>7.9</v>
       </c>
       <c r="M11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.396</v>
+        <v>0.398</v>
       </c>
       <c r="O11" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P11" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q11" t="n">
         <v>0.791</v>
       </c>
       <c r="R11" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="U11" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V11" t="n">
         <v>15.3</v>
@@ -2367,10 +2434,10 @@
         <v>4.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA11" t="n">
         <v>19.7</v>
@@ -2379,25 +2446,25 @@
         <v>100.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>16</v>
@@ -2439,7 +2506,7 @@
         <v>26</v>
       </c>
       <c r="AW11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX11" t="n">
         <v>27</v>
@@ -2451,7 +2518,7 @@
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
         <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>0.545</v>
+        <v>0.538</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2504,7 +2571,7 @@
         <v>38.5</v>
       </c>
       <c r="J12" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.465</v>
@@ -2513,19 +2580,19 @@
         <v>10.8</v>
       </c>
       <c r="M12" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="N12" t="n">
         <v>0.374</v>
       </c>
       <c r="O12" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R12" t="n">
         <v>10.8</v>
@@ -2543,10 +2610,10 @@
         <v>16.4</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="n">
         <v>6.1</v>
@@ -2555,22 +2622,22 @@
         <v>20</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB12" t="n">
         <v>106.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
@@ -2579,7 +2646,7 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2612,7 +2679,7 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU12" t="n">
         <v>5</v>
@@ -2633,7 +2700,7 @@
         <v>16</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" t="n">
         <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0.615</v>
+        <v>0.625</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2686,25 +2753,25 @@
         <v>35.1</v>
       </c>
       <c r="J13" t="n">
-        <v>80.7</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O13" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P13" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="n">
         <v>0.744</v>
@@ -2716,7 +2783,7 @@
         <v>32.9</v>
       </c>
       <c r="T13" t="n">
-        <v>45.8</v>
+        <v>45.6</v>
       </c>
       <c r="U13" t="n">
         <v>20.4</v>
@@ -2734,7 +2801,7 @@
         <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA13" t="n">
         <v>21.7</v>
@@ -2743,10 +2810,10 @@
         <v>94.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2761,28 +2828,28 @@
         <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM13" t="n">
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>14</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>19</v>
@@ -2791,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="AS13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2800,13 +2867,13 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
         <v>20</v>
@@ -2815,7 +2882,7 @@
         <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2943,10 +3010,10 @@
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
@@ -2955,10 +3022,10 @@
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>18</v>
@@ -2970,13 +3037,13 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2991,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ14" t="n">
         <v>23</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -3032,19 +3099,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" t="n">
         <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>0.522</v>
+        <v>0.515</v>
       </c>
       <c r="H15" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I15" t="n">
         <v>37.3</v>
@@ -3053,7 +3120,7 @@
         <v>81.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L15" t="n">
         <v>8.800000000000001</v>
@@ -3062,28 +3129,28 @@
         <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O15" t="n">
         <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="Q15" t="n">
         <v>0.6889999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T15" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U15" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V15" t="n">
         <v>15.1</v>
@@ -3092,7 +3159,7 @@
         <v>7.1</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y15" t="n">
         <v>5</v>
@@ -3101,22 +3168,22 @@
         <v>18.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -3128,10 +3195,10 @@
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
         <v>4</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
         <v>3</v>
@@ -3155,13 +3222,13 @@
         <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV15" t="n">
         <v>20</v>
@@ -3170,13 +3237,13 @@
         <v>23</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" t="n">
         <v>44</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.698</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J16" t="n">
         <v>82</v>
       </c>
       <c r="K16" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
@@ -3250,25 +3317,25 @@
         <v>16.2</v>
       </c>
       <c r="P16" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T16" t="n">
         <v>42.6</v>
       </c>
       <c r="U16" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V16" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W16" t="n">
         <v>8.699999999999999</v>
@@ -3277,25 +3344,25 @@
         <v>5.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA16" t="n">
         <v>19.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
@@ -3313,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3334,13 +3401,13 @@
         <v>9</v>
       </c>
       <c r="AR16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU16" t="n">
         <v>22</v>
@@ -3361,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -3396,22 +3463,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J17" t="n">
         <v>78.5</v>
@@ -3423,10 +3490,10 @@
         <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N17" t="n">
-        <v>0.385</v>
+        <v>0.384</v>
       </c>
       <c r="O17" t="n">
         <v>17.5</v>
@@ -3441,10 +3508,10 @@
         <v>8.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T17" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="U17" t="n">
         <v>22.6</v>
@@ -3462,22 +3529,22 @@
         <v>3.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA17" t="n">
         <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
         <v>1</v>
@@ -3507,10 +3574,10 @@
         <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -3578,34 +3645,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" t="n">
         <v>32</v>
       </c>
       <c r="F18" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.508</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J18" t="n">
-        <v>86.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L18" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M18" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N18" t="n">
         <v>0.357</v>
@@ -3617,10 +3684,10 @@
         <v>21.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R18" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
         <v>31</v>
@@ -3632,13 +3699,13 @@
         <v>22.9</v>
       </c>
       <c r="V18" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W18" t="n">
         <v>8.4</v>
       </c>
       <c r="X18" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y18" t="n">
         <v>4.3</v>
@@ -3647,16 +3714,16 @@
         <v>19.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB18" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3665,7 +3732,7 @@
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
         <v>14</v>
@@ -3680,16 +3747,16 @@
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN18" t="n">
         <v>18</v>
       </c>
-      <c r="AN18" t="n">
-        <v>19</v>
-      </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
         <v>18</v>
@@ -3698,7 +3765,7 @@
         <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>13</v>
@@ -3707,13 +3774,13 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3722,10 +3789,10 @@
         <v>8</v>
       </c>
       <c r="AZ18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -3760,55 +3827,55 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" t="n">
         <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>0.349</v>
+        <v>0.355</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J19" t="n">
         <v>81.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L19" t="n">
         <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.298</v>
+        <v>0.299</v>
       </c>
       <c r="O19" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P19" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.73</v>
+        <v>0.729</v>
       </c>
       <c r="R19" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S19" t="n">
         <v>30.4</v>
       </c>
       <c r="T19" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U19" t="n">
         <v>22</v>
@@ -3817,7 +3884,7 @@
         <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X19" t="n">
         <v>5</v>
@@ -3826,25 +3893,25 @@
         <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="AC19" t="n">
         <v>-3.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
         <v>24</v>
       </c>
       <c r="AF19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
         <v>22</v>
@@ -3856,10 +3923,10 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3880,19 +3947,19 @@
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>13</v>
@@ -3901,7 +3968,7 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="n">
         <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3966,13 +4033,13 @@
         <v>0.452</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
         <v>18.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.368</v>
+        <v>0.371</v>
       </c>
       <c r="O20" t="n">
         <v>14.9</v>
@@ -3981,19 +4048,19 @@
         <v>19.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R20" t="n">
         <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
         <v>14.2</v>
@@ -4002,7 +4069,7 @@
         <v>6.3</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
@@ -4014,22 +4081,22 @@
         <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>24</v>
       </c>
       <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
         <v>26</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>27</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4038,13 +4105,13 @@
         <v>21</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
@@ -4059,7 +4126,7 @@
         <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>13</v>
@@ -4083,16 +4150,16 @@
         <v>8</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA20" t="n">
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BC20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
       </c>
       <c r="AF21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG21" t="n">
         <v>8</v>
@@ -4247,7 +4314,7 @@
         <v>17</v>
       </c>
       <c r="AS21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -4306,55 +4373,55 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" t="n">
         <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.742</v>
+        <v>0.738</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J22" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="O22" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="P22" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.829</v>
+        <v>0.833</v>
       </c>
       <c r="R22" t="n">
         <v>10.3</v>
       </c>
       <c r="S22" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T22" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U22" t="n">
         <v>21.8</v>
@@ -4363,7 +4430,7 @@
         <v>15.7</v>
       </c>
       <c r="W22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X22" t="n">
         <v>7.5</v>
@@ -4372,19 +4439,19 @@
         <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA22" t="n">
         <v>21.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.7</v>
+        <v>106.5</v>
       </c>
       <c r="AC22" t="n">
         <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4411,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN22" t="n">
         <v>2</v>
@@ -4429,7 +4496,7 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
         <v>8</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" t="n">
         <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" t="n">
-        <v>0.273</v>
+        <v>0.277</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,7 +4573,7 @@
         <v>37.7</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K23" t="n">
         <v>0.452</v>
@@ -4515,37 +4582,37 @@
         <v>6.5</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O23" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="P23" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R23" t="n">
         <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U23" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="V23" t="n">
         <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
@@ -4560,13 +4627,13 @@
         <v>16.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.40000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4581,7 +4648,7 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
         <v>8</v>
@@ -4590,10 +4657,10 @@
         <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN23" t="n">
         <v>28</v>
@@ -4605,40 +4672,40 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
         <v>6</v>
       </c>
       <c r="AV23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY23" t="n">
         <v>15</v>
       </c>
       <c r="AZ23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4766,7 +4833,7 @@
         <v>14</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>21</v>
@@ -4778,7 +4845,7 @@
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="n">
         <v>22</v>
       </c>
       <c r="F25" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J25" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K25" t="n">
         <v>0.441</v>
@@ -4882,37 +4949,37 @@
         <v>17.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.325</v>
+        <v>0.327</v>
       </c>
       <c r="O25" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="P25" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R25" t="n">
         <v>11.5</v>
       </c>
       <c r="S25" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U25" t="n">
         <v>22.3</v>
       </c>
       <c r="V25" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W25" t="n">
         <v>8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y25" t="n">
         <v>5.1</v>
@@ -4927,19 +4994,19 @@
         <v>94.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.1</v>
+        <v>-6</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>24</v>
       </c>
       <c r="AF25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG25" t="n">
         <v>26</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>27</v>
       </c>
       <c r="AH25" t="n">
         <v>16</v>
@@ -4948,13 +5015,13 @@
         <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
         <v>22</v>
       </c>
       <c r="AL25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM25" t="n">
         <v>24</v>
@@ -4972,25 +5039,25 @@
         <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
         <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>18</v>
@@ -5002,7 +5069,7 @@
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>-1.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
         <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
@@ -5148,7 +5215,7 @@
         <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
         <v>8</v>
@@ -5157,7 +5224,7 @@
         <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT26" t="n">
         <v>17</v>
@@ -5172,22 +5239,22 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>23</v>
@@ -5315,7 +5382,7 @@
         <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
         <v>14</v>
@@ -5339,13 +5406,13 @@
         <v>11</v>
       </c>
       <c r="AS27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT27" t="n">
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
         <v>18</v>
@@ -5354,13 +5421,13 @@
         <v>7</v>
       </c>
       <c r="AX27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5521,7 +5588,7 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
         <v>23</v>
@@ -5536,7 +5603,7 @@
         <v>5</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -5580,70 +5647,70 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" t="n">
         <v>40</v>
       </c>
       <c r="G29" t="n">
-        <v>0.394</v>
+        <v>0.385</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
       </c>
       <c r="I29" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M29" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="N29" t="n">
         <v>0.35</v>
       </c>
       <c r="O29" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P29" t="n">
         <v>22.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R29" t="n">
         <v>10.7</v>
       </c>
       <c r="S29" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U29" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V29" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W29" t="n">
         <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z29" t="n">
         <v>22.9</v>
@@ -5652,13 +5719,13 @@
         <v>20</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.4</v>
+        <v>-1.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5676,7 +5743,7 @@
         <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
         <v>20</v>
@@ -5685,7 +5752,7 @@
         <v>13</v>
       </c>
       <c r="AM29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN29" t="n">
         <v>22</v>
@@ -5703,13 +5770,13 @@
         <v>23</v>
       </c>
       <c r="AS29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5718,7 +5785,7 @@
         <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
         <v>16</v>
@@ -5733,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -5840,25 +5907,25 @@
         <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
         <v>16</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
         <v>14</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
@@ -5882,10 +5949,10 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>14</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" t="n">
         <v>42</v>
       </c>
       <c r="G31" t="n">
-        <v>0.344</v>
+        <v>0.333</v>
       </c>
       <c r="H31" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I31" t="n">
         <v>35.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L31" t="n">
         <v>6.6</v>
@@ -5974,7 +6041,7 @@
         <v>18.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O31" t="n">
         <v>14.9</v>
@@ -5986,10 +6053,10 @@
         <v>0.735</v>
       </c>
       <c r="R31" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T31" t="n">
         <v>43.5</v>
@@ -6007,31 +6074,31 @@
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>92</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
         <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
         <v>5</v>
@@ -6040,19 +6107,19 @@
         <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="n">
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6073,13 +6140,13 @@
         <v>6</v>
       </c>
       <c r="AU31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-15-2012-13</t>
+          <t>2013-03-15</t>
         </is>
       </c>
     </row>
